--- a/StructureDefinition-operation.xlsx
+++ b/StructureDefinition-operation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-07T14:26:09+00:00</t>
+    <t>2024-04-07T14:51:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-operation.xlsx
+++ b/StructureDefinition-operation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-07T14:51:37+00:00</t>
+    <t>2024-04-07T14:56:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-operation.xlsx
+++ b/StructureDefinition-operation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-07T14:56:06+00:00</t>
+    <t>2024-04-08T13:30:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-operation.xlsx
+++ b/StructureDefinition-operation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-08T13:30:59+00:00</t>
+    <t>2024-04-08T16:49:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-operation.xlsx
+++ b/StructureDefinition-operation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-08T16:49:27+00:00</t>
+    <t>2024-04-08T16:58:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-operation.xlsx
+++ b/StructureDefinition-operation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-08T16:58:24+00:00</t>
+    <t>2024-05-22T07:04:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>IDG Institut für digitale Gesundheitsdaten RLP gGmbH (https://www.idg-rlp.de/, info@idg-rlp.de)</t>
   </si>
   <si>
     <t>Description</t>

--- a/StructureDefinition-operation.xlsx
+++ b/StructureDefinition-operation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T07:04:28+00:00</t>
+    <t>2024-05-28T11:23:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-operation.xlsx
+++ b/StructureDefinition-operation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T11:23:31+00:00</t>
+    <t>2024-05-28T11:48:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-operation.xlsx
+++ b/StructureDefinition-operation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T19:55:11+00:00</t>
+    <t>2024-09-18T10:41:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-operation.xlsx
+++ b/StructureDefinition-operation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T10:41:35+00:00</t>
+    <t>2024-09-18T11:11:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-operation.xlsx
+++ b/StructureDefinition-operation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T11:11:15+00:00</t>
+    <t>2024-10-31T11:09:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-operation.xlsx
+++ b/StructureDefinition-operation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T11:09:37+00:00</t>
+    <t>2024-10-31T11:09:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-operation.xlsx
+++ b/StructureDefinition-operation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T11:09:58+00:00</t>
+    <t>2024-12-02T15:35:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
